--- a/misc/2131_revised_with_times.xlsx
+++ b/misc/2131_revised_with_times.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\genes\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\samples\MILP\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B6E4CC-87EC-4DB2-82BC-BADEBB38A702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3806927-A780-40F3-B938-B6B3F87C4031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Machine Route" sheetId="1" r:id="rId1"/>
-    <sheet name="Routing_Long" sheetId="2" r:id="rId2"/>
-    <sheet name="Times" sheetId="3" r:id="rId3"/>
-    <sheet name="Machines" sheetId="4" r:id="rId4"/>
-    <sheet name="Orders" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
+    <sheet name="Routing_Long" sheetId="2" r:id="rId3"/>
+    <sheet name="Times" sheetId="3" r:id="rId4"/>
+    <sheet name="Machines" sheetId="4" r:id="rId5"/>
+    <sheet name="Orders" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1042,6 +1043,55 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>477933</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>1085</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B032A6C6-4B45-5414-B8A8-6F7FD02376C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12060333" cy="7773485"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="B1:H69" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
   <autoFilter ref="B1:H69" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
@@ -1261,7 +1311,7 @@
   </sheetPr>
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
@@ -2491,6 +2541,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A1A30A-52DE-4840-BCB1-81BD0BD72812}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F111"/>
   <sheetViews>
@@ -4729,7 +4792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F112"/>
   <sheetViews>
@@ -6985,7 +7048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -7114,7 +7177,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
